--- a/Pasta1.xlsx
+++ b/Pasta1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\B39256\TRABALHO LP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\B39256\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="PLANILHA CP" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="1.1.2.1" sheetId="2" r:id="rId3"/>
     <sheet name="1.1.3.1" sheetId="3" r:id="rId4"/>
     <sheet name="1.2.1.2" sheetId="4" r:id="rId5"/>
-    <sheet name="2.1.2.1" sheetId="5" r:id="rId6"/>
+    <sheet name="Planilha1" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="95">
   <si>
     <r>
       <t xml:space="preserve">Tabela 1.1.1.1 - Estudantes de curso superior de graduação, por tipo de curso superior de graduação que frequentavam, segundo as classes de rendimento mensal domiciliar e de rendimento mensal domiciliar </t>
@@ -352,6 +352,33 @@
   </si>
   <si>
     <t>Coeficientes de variação das pessoas que frequentaram anteriormente curso superior de tecnologia e eram estudantes de curso de mestrado ou doutorado ou frequentaram anteriormente curso superior de graduação, mestrado ou doutorado</t>
+  </si>
+  <si>
+    <t>Tabela 1.2.2.1 - Rendimento, médio e mediano, mensal domiciliar dos estudantes de curso superior de graduação, por tipo de curso superior de graduação que frequentavam, segundo as Grandes Regiões - 2014</t>
+  </si>
+  <si>
+    <t>Rendimento médio mensal domiciliar dos estudantes de curso superior de graduação (R$)</t>
+  </si>
+  <si>
+    <t>Rendimento mediano mensal domiciliar dos estudantes de curso superior de graduação (R$)</t>
+  </si>
+  <si>
+    <t>Brasil</t>
+  </si>
+  <si>
+    <t>Notas: 1. Exclusive as informações das pessoas cuja condição na unidade domiciliar era pensionista, empregado doméstico ou parente do empregado doméstico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          2. Exclusive as informações das pessoas sem declaração de rendimento mensal domiciliar.</t>
+  </si>
+  <si>
+    <t>Tabela 1.2.2.1a - Coeficientes de variação do rendimento, médio e mediano, mensal domiciliar dos estudantes de curso superior de graduação, por tipo de curso superior de graduação que frequentavam, segundo as Grandes Regiões - 2014</t>
+  </si>
+  <si>
+    <t>Coeficientes de variação do rendimento médio mensal domiciliar dos estudantes de curso superior de graduação (R$)</t>
+  </si>
+  <si>
+    <t>Coeficientes de variação do rendimento mediano mensal domiciliar dos estudantes de curso superior de graduação (R$)</t>
   </si>
 </sst>
 </file>
@@ -698,7 +725,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="168" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="224">
+  <cellXfs count="245">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
@@ -1144,56 +1171,107 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="20" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="28">
@@ -1504,31 +1582,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y23" sqref="Y22:Y23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Y23" sqref="Y23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="219" t="s">
+      <c r="A1" s="207" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="219"/>
-      <c r="C1" s="219"/>
-      <c r="D1" s="219"/>
-      <c r="E1" s="219"/>
-      <c r="F1" s="219"/>
-      <c r="G1" s="219"/>
-      <c r="L1" s="207" t="s">
+      <c r="B1" s="207"/>
+      <c r="C1" s="207"/>
+      <c r="D1" s="207"/>
+      <c r="E1" s="207"/>
+      <c r="F1" s="207"/>
+      <c r="G1" s="207"/>
+      <c r="L1" s="212" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="207"/>
-      <c r="N1" s="207"/>
-      <c r="O1" s="207"/>
-      <c r="P1" s="207"/>
-      <c r="Q1" s="207"/>
-      <c r="R1" s="207"/>
+      <c r="M1" s="212"/>
+      <c r="N1" s="212"/>
+      <c r="O1" s="212"/>
+      <c r="P1" s="212"/>
+      <c r="Q1" s="212"/>
+      <c r="R1" s="212"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="2"/>
@@ -1547,110 +1625,110 @@
       <c r="R2" s="20"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="220" t="s">
+      <c r="A3" s="208" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="221" t="s">
+      <c r="B3" s="209" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="221"/>
-      <c r="D3" s="221"/>
-      <c r="E3" s="221"/>
-      <c r="F3" s="221"/>
-      <c r="G3" s="221"/>
-      <c r="L3" s="216" t="s">
+      <c r="C3" s="209"/>
+      <c r="D3" s="209"/>
+      <c r="E3" s="209"/>
+      <c r="F3" s="209"/>
+      <c r="G3" s="209"/>
+      <c r="L3" s="213" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="209" t="s">
+      <c r="M3" s="214" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="209"/>
-      <c r="O3" s="209"/>
-      <c r="P3" s="209"/>
-      <c r="Q3" s="209"/>
-      <c r="R3" s="209"/>
+      <c r="N3" s="214"/>
+      <c r="O3" s="214"/>
+      <c r="P3" s="214"/>
+      <c r="Q3" s="214"/>
+      <c r="R3" s="214"/>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" s="220"/>
-      <c r="B4" s="222" t="s">
+      <c r="A4" s="208"/>
+      <c r="B4" s="210" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="222"/>
-      <c r="D4" s="222"/>
-      <c r="E4" s="221" t="s">
+      <c r="C4" s="210"/>
+      <c r="D4" s="210"/>
+      <c r="E4" s="209" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="221"/>
-      <c r="G4" s="221"/>
-      <c r="L4" s="216"/>
-      <c r="M4" s="210" t="s">
+      <c r="F4" s="209"/>
+      <c r="G4" s="209"/>
+      <c r="L4" s="213"/>
+      <c r="M4" s="215" t="s">
         <v>3</v>
       </c>
-      <c r="N4" s="210"/>
-      <c r="O4" s="210"/>
-      <c r="P4" s="209" t="s">
+      <c r="N4" s="215"/>
+      <c r="O4" s="215"/>
+      <c r="P4" s="214" t="s">
         <v>4</v>
       </c>
-      <c r="Q4" s="209"/>
-      <c r="R4" s="209"/>
+      <c r="Q4" s="214"/>
+      <c r="R4" s="214"/>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="220"/>
-      <c r="B5" s="222" t="s">
+      <c r="A5" s="208"/>
+      <c r="B5" s="210" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="220" t="s">
+      <c r="C5" s="208" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="220"/>
-      <c r="E5" s="222" t="s">
+      <c r="D5" s="208"/>
+      <c r="E5" s="210" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="223" t="s">
+      <c r="F5" s="211" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="223"/>
-      <c r="L5" s="216"/>
-      <c r="M5" s="210" t="s">
+      <c r="G5" s="211"/>
+      <c r="L5" s="213"/>
+      <c r="M5" s="215" t="s">
         <v>5</v>
       </c>
-      <c r="N5" s="216" t="s">
+      <c r="N5" s="213" t="s">
         <v>6</v>
       </c>
-      <c r="O5" s="216"/>
-      <c r="P5" s="210" t="s">
+      <c r="O5" s="213"/>
+      <c r="P5" s="215" t="s">
         <v>5</v>
       </c>
-      <c r="Q5" s="211" t="s">
+      <c r="Q5" s="216" t="s">
         <v>6</v>
       </c>
-      <c r="R5" s="211"/>
+      <c r="R5" s="216"/>
     </row>
     <row r="6" spans="1:18" ht="27">
-      <c r="A6" s="220"/>
-      <c r="B6" s="222"/>
+      <c r="A6" s="208"/>
+      <c r="B6" s="210"/>
       <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="222"/>
+      <c r="E6" s="210"/>
       <c r="F6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="216"/>
-      <c r="M6" s="210"/>
+      <c r="L6" s="213"/>
+      <c r="M6" s="215"/>
       <c r="N6" s="21" t="s">
         <v>7</v>
       </c>
       <c r="O6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="210"/>
+      <c r="P6" s="215"/>
       <c r="Q6" s="21" t="s">
         <v>7</v>
       </c>
@@ -2479,26 +2557,26 @@
       <c r="R28" s="19"/>
     </row>
     <row r="34" spans="1:19">
-      <c r="A34" s="207" t="s">
+      <c r="A34" s="212" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="207"/>
-      <c r="C34" s="207"/>
-      <c r="D34" s="207"/>
-      <c r="E34" s="207"/>
-      <c r="F34" s="207"/>
-      <c r="G34" s="207"/>
-      <c r="H34" s="207"/>
-      <c r="L34" s="207" t="s">
+      <c r="B34" s="212"/>
+      <c r="C34" s="212"/>
+      <c r="D34" s="212"/>
+      <c r="E34" s="212"/>
+      <c r="F34" s="212"/>
+      <c r="G34" s="212"/>
+      <c r="H34" s="212"/>
+      <c r="L34" s="212" t="s">
         <v>46</v>
       </c>
-      <c r="M34" s="207"/>
-      <c r="N34" s="207"/>
-      <c r="O34" s="207"/>
-      <c r="P34" s="207"/>
-      <c r="Q34" s="207"/>
-      <c r="R34" s="207"/>
-      <c r="S34" s="207"/>
+      <c r="M34" s="212"/>
+      <c r="N34" s="212"/>
+      <c r="O34" s="212"/>
+      <c r="P34" s="212"/>
+      <c r="Q34" s="212"/>
+      <c r="R34" s="212"/>
+      <c r="S34" s="212"/>
     </row>
     <row r="35" spans="1:19">
       <c r="A35" s="38"/>
@@ -2519,105 +2597,105 @@
       <c r="S35" s="57"/>
     </row>
     <row r="36" spans="1:19">
-      <c r="A36" s="208" t="s">
+      <c r="A36" s="217" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="210" t="s">
+      <c r="B36" s="215" t="s">
         <v>29</v>
       </c>
-      <c r="C36" s="210"/>
-      <c r="D36" s="210"/>
-      <c r="E36" s="210"/>
-      <c r="F36" s="210"/>
-      <c r="G36" s="210"/>
+      <c r="C36" s="215"/>
+      <c r="D36" s="215"/>
+      <c r="E36" s="215"/>
+      <c r="F36" s="215"/>
+      <c r="G36" s="215"/>
       <c r="H36" s="218" t="s">
         <v>30</v>
       </c>
-      <c r="L36" s="208" t="s">
+      <c r="L36" s="217" t="s">
         <v>28</v>
       </c>
-      <c r="M36" s="210" t="s">
+      <c r="M36" s="215" t="s">
         <v>47</v>
       </c>
-      <c r="N36" s="210"/>
-      <c r="O36" s="210"/>
-      <c r="P36" s="210"/>
-      <c r="Q36" s="210"/>
-      <c r="R36" s="210"/>
+      <c r="N36" s="215"/>
+      <c r="O36" s="215"/>
+      <c r="P36" s="215"/>
+      <c r="Q36" s="215"/>
+      <c r="R36" s="215"/>
       <c r="S36" s="218" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:19">
-      <c r="A37" s="208"/>
-      <c r="B37" s="209" t="s">
+      <c r="A37" s="217"/>
+      <c r="B37" s="214" t="s">
         <v>3</v>
       </c>
-      <c r="C37" s="209"/>
-      <c r="D37" s="209"/>
-      <c r="E37" s="210" t="s">
+      <c r="C37" s="214"/>
+      <c r="D37" s="214"/>
+      <c r="E37" s="215" t="s">
         <v>4</v>
       </c>
-      <c r="F37" s="210"/>
-      <c r="G37" s="210"/>
+      <c r="F37" s="215"/>
+      <c r="G37" s="215"/>
       <c r="H37" s="218"/>
-      <c r="L37" s="208"/>
-      <c r="M37" s="209" t="s">
+      <c r="L37" s="217"/>
+      <c r="M37" s="214" t="s">
         <v>3</v>
       </c>
-      <c r="N37" s="209"/>
-      <c r="O37" s="209"/>
-      <c r="P37" s="210" t="s">
+      <c r="N37" s="214"/>
+      <c r="O37" s="214"/>
+      <c r="P37" s="215" t="s">
         <v>4</v>
       </c>
-      <c r="Q37" s="210"/>
-      <c r="R37" s="210"/>
+      <c r="Q37" s="215"/>
+      <c r="R37" s="215"/>
       <c r="S37" s="218"/>
     </row>
     <row r="38" spans="1:19">
-      <c r="A38" s="208"/>
-      <c r="B38" s="210" t="s">
+      <c r="A38" s="217"/>
+      <c r="B38" s="215" t="s">
         <v>5</v>
       </c>
-      <c r="C38" s="211" t="s">
+      <c r="C38" s="216" t="s">
         <v>31</v>
       </c>
-      <c r="D38" s="211"/>
-      <c r="E38" s="210" t="s">
+      <c r="D38" s="216"/>
+      <c r="E38" s="215" t="s">
         <v>5</v>
       </c>
-      <c r="F38" s="216" t="s">
+      <c r="F38" s="213" t="s">
         <v>31</v>
       </c>
-      <c r="G38" s="216"/>
+      <c r="G38" s="213"/>
       <c r="H38" s="218"/>
-      <c r="L38" s="208"/>
-      <c r="M38" s="210" t="s">
+      <c r="L38" s="217"/>
+      <c r="M38" s="215" t="s">
         <v>5</v>
       </c>
-      <c r="N38" s="211" t="s">
+      <c r="N38" s="216" t="s">
         <v>31</v>
       </c>
-      <c r="O38" s="211"/>
-      <c r="P38" s="210" t="s">
+      <c r="O38" s="216"/>
+      <c r="P38" s="215" t="s">
         <v>5</v>
       </c>
-      <c r="Q38" s="216" t="s">
+      <c r="Q38" s="213" t="s">
         <v>31</v>
       </c>
-      <c r="R38" s="216"/>
+      <c r="R38" s="213"/>
       <c r="S38" s="218"/>
     </row>
     <row r="39" spans="1:19" ht="18">
-      <c r="A39" s="208"/>
-      <c r="B39" s="210"/>
+      <c r="A39" s="217"/>
+      <c r="B39" s="215"/>
       <c r="C39" s="48" t="s">
         <v>32</v>
       </c>
       <c r="D39" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="E39" s="210"/>
+      <c r="E39" s="215"/>
       <c r="F39" s="48" t="s">
         <v>32</v>
       </c>
@@ -2625,15 +2703,15 @@
         <v>33</v>
       </c>
       <c r="H39" s="218"/>
-      <c r="L39" s="208"/>
-      <c r="M39" s="210"/>
+      <c r="L39" s="217"/>
+      <c r="M39" s="215"/>
       <c r="N39" s="65" t="s">
         <v>32</v>
       </c>
       <c r="O39" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="P39" s="210"/>
+      <c r="P39" s="215"/>
       <c r="Q39" s="65" t="s">
         <v>32</v>
       </c>
@@ -3249,22 +3327,22 @@
       <c r="S54" s="56"/>
     </row>
     <row r="61" spans="1:19">
-      <c r="A61" s="207" t="s">
+      <c r="A61" s="212" t="s">
         <v>49</v>
       </c>
-      <c r="B61" s="207"/>
-      <c r="C61" s="207"/>
-      <c r="D61" s="207"/>
-      <c r="E61" s="207"/>
-      <c r="F61" s="207"/>
-      <c r="L61" s="207" t="s">
+      <c r="B61" s="212"/>
+      <c r="C61" s="212"/>
+      <c r="D61" s="212"/>
+      <c r="E61" s="212"/>
+      <c r="F61" s="212"/>
+      <c r="L61" s="212" t="s">
         <v>60</v>
       </c>
-      <c r="M61" s="207"/>
-      <c r="N61" s="207"/>
-      <c r="O61" s="207"/>
-      <c r="P61" s="207"/>
-      <c r="Q61" s="207"/>
+      <c r="M61" s="212"/>
+      <c r="N61" s="212"/>
+      <c r="O61" s="212"/>
+      <c r="P61" s="212"/>
+      <c r="Q61" s="212"/>
     </row>
     <row r="62" spans="1:19">
       <c r="A62" s="78"/>
@@ -3281,55 +3359,55 @@
       <c r="Q62" s="96"/>
     </row>
     <row r="63" spans="1:19">
-      <c r="A63" s="216" t="s">
+      <c r="A63" s="213" t="s">
         <v>50</v>
       </c>
-      <c r="B63" s="210" t="s">
+      <c r="B63" s="215" t="s">
         <v>29</v>
       </c>
-      <c r="C63" s="210"/>
-      <c r="D63" s="210"/>
-      <c r="E63" s="210"/>
-      <c r="F63" s="211" t="s">
+      <c r="C63" s="215"/>
+      <c r="D63" s="215"/>
+      <c r="E63" s="215"/>
+      <c r="F63" s="216" t="s">
         <v>51</v>
       </c>
-      <c r="L63" s="216" t="s">
+      <c r="L63" s="213" t="s">
         <v>50</v>
       </c>
-      <c r="M63" s="210" t="s">
+      <c r="M63" s="215" t="s">
         <v>47</v>
       </c>
-      <c r="N63" s="210"/>
-      <c r="O63" s="210"/>
-      <c r="P63" s="210"/>
-      <c r="Q63" s="211" t="s">
+      <c r="N63" s="215"/>
+      <c r="O63" s="215"/>
+      <c r="P63" s="215"/>
+      <c r="Q63" s="216" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:19">
-      <c r="A64" s="216"/>
-      <c r="B64" s="213" t="s">
+      <c r="A64" s="213"/>
+      <c r="B64" s="219" t="s">
         <v>3</v>
       </c>
-      <c r="C64" s="213"/>
-      <c r="D64" s="217" t="s">
+      <c r="C64" s="219"/>
+      <c r="D64" s="220" t="s">
         <v>4</v>
       </c>
-      <c r="E64" s="217"/>
-      <c r="F64" s="211"/>
-      <c r="L64" s="216"/>
-      <c r="M64" s="213" t="s">
+      <c r="E64" s="220"/>
+      <c r="F64" s="216"/>
+      <c r="L64" s="213"/>
+      <c r="M64" s="219" t="s">
         <v>3</v>
       </c>
-      <c r="N64" s="213"/>
-      <c r="O64" s="217" t="s">
+      <c r="N64" s="219"/>
+      <c r="O64" s="220" t="s">
         <v>4</v>
       </c>
-      <c r="P64" s="217"/>
-      <c r="Q64" s="211"/>
+      <c r="P64" s="220"/>
+      <c r="Q64" s="216"/>
     </row>
     <row r="65" spans="1:17" ht="27">
-      <c r="A65" s="216"/>
+      <c r="A65" s="213"/>
       <c r="B65" s="75" t="s">
         <v>5</v>
       </c>
@@ -3342,8 +3420,8 @@
       <c r="E65" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="F65" s="211"/>
-      <c r="L65" s="216"/>
+      <c r="F65" s="216"/>
+      <c r="L65" s="213"/>
       <c r="M65" s="92" t="s">
         <v>5</v>
       </c>
@@ -3356,7 +3434,7 @@
       <c r="P65" s="91" t="s">
         <v>52</v>
       </c>
-      <c r="Q65" s="211"/>
+      <c r="Q65" s="216"/>
     </row>
     <row r="66" spans="1:17">
       <c r="A66" s="80" t="s">
@@ -3695,24 +3773,24 @@
       <c r="Q75" s="105"/>
     </row>
     <row r="81" spans="1:18">
-      <c r="A81" s="207" t="s">
+      <c r="A81" s="212" t="s">
         <v>62</v>
       </c>
-      <c r="B81" s="207"/>
-      <c r="C81" s="207"/>
-      <c r="D81" s="207"/>
-      <c r="E81" s="207"/>
-      <c r="F81" s="207"/>
-      <c r="G81" s="207"/>
-      <c r="L81" s="207" t="s">
+      <c r="B81" s="212"/>
+      <c r="C81" s="212"/>
+      <c r="D81" s="212"/>
+      <c r="E81" s="212"/>
+      <c r="F81" s="212"/>
+      <c r="G81" s="212"/>
+      <c r="L81" s="212" t="s">
         <v>78</v>
       </c>
-      <c r="M81" s="207"/>
-      <c r="N81" s="207"/>
-      <c r="O81" s="207"/>
-      <c r="P81" s="207"/>
-      <c r="Q81" s="207"/>
-      <c r="R81" s="207"/>
+      <c r="M81" s="212"/>
+      <c r="N81" s="212"/>
+      <c r="O81" s="212"/>
+      <c r="P81" s="212"/>
+      <c r="Q81" s="212"/>
+      <c r="R81" s="212"/>
     </row>
     <row r="82" spans="1:18">
       <c r="A82" s="107"/>
@@ -3731,56 +3809,56 @@
       <c r="R82" s="126"/>
     </row>
     <row r="83" spans="1:18">
-      <c r="A83" s="208" t="s">
+      <c r="A83" s="217" t="s">
         <v>63</v>
       </c>
-      <c r="B83" s="213" t="s">
+      <c r="B83" s="219" t="s">
         <v>29</v>
       </c>
-      <c r="C83" s="213"/>
-      <c r="D83" s="213"/>
-      <c r="E83" s="213"/>
-      <c r="F83" s="213"/>
-      <c r="G83" s="213"/>
-      <c r="L83" s="208" t="s">
+      <c r="C83" s="219"/>
+      <c r="D83" s="219"/>
+      <c r="E83" s="219"/>
+      <c r="F83" s="219"/>
+      <c r="G83" s="219"/>
+      <c r="L83" s="217" t="s">
         <v>63</v>
       </c>
-      <c r="M83" s="213" t="s">
+      <c r="M83" s="219" t="s">
         <v>47</v>
       </c>
-      <c r="N83" s="213"/>
-      <c r="O83" s="213"/>
-      <c r="P83" s="213"/>
-      <c r="Q83" s="213"/>
-      <c r="R83" s="213"/>
+      <c r="N83" s="219"/>
+      <c r="O83" s="219"/>
+      <c r="P83" s="219"/>
+      <c r="Q83" s="219"/>
+      <c r="R83" s="219"/>
     </row>
     <row r="84" spans="1:18">
-      <c r="A84" s="208"/>
-      <c r="B84" s="214" t="s">
+      <c r="A84" s="217"/>
+      <c r="B84" s="222" t="s">
         <v>5</v>
       </c>
-      <c r="C84" s="211" t="s">
+      <c r="C84" s="216" t="s">
         <v>64</v>
       </c>
-      <c r="D84" s="211"/>
-      <c r="E84" s="211"/>
-      <c r="F84" s="211"/>
-      <c r="G84" s="211"/>
-      <c r="L84" s="208"/>
-      <c r="M84" s="214" t="s">
+      <c r="D84" s="216"/>
+      <c r="E84" s="216"/>
+      <c r="F84" s="216"/>
+      <c r="G84" s="216"/>
+      <c r="L84" s="217"/>
+      <c r="M84" s="222" t="s">
         <v>5</v>
       </c>
-      <c r="N84" s="211" t="s">
+      <c r="N84" s="216" t="s">
         <v>64</v>
       </c>
-      <c r="O84" s="211"/>
-      <c r="P84" s="211"/>
-      <c r="Q84" s="211"/>
-      <c r="R84" s="211"/>
+      <c r="O84" s="216"/>
+      <c r="P84" s="216"/>
+      <c r="Q84" s="216"/>
+      <c r="R84" s="216"/>
     </row>
     <row r="85" spans="1:18">
-      <c r="A85" s="208"/>
-      <c r="B85" s="214"/>
+      <c r="A85" s="217"/>
+      <c r="B85" s="222"/>
       <c r="C85" s="124" t="s">
         <v>65</v>
       </c>
@@ -3796,8 +3874,8 @@
       <c r="G85" s="123" t="s">
         <v>69</v>
       </c>
-      <c r="L85" s="208"/>
-      <c r="M85" s="214"/>
+      <c r="L85" s="217"/>
+      <c r="M85" s="222"/>
       <c r="N85" s="144" t="s">
         <v>65</v>
       </c>
@@ -3815,24 +3893,24 @@
       </c>
     </row>
     <row r="86" spans="1:18">
-      <c r="A86" s="215" t="s">
+      <c r="A86" s="223" t="s">
         <v>3</v>
       </c>
-      <c r="B86" s="215"/>
-      <c r="C86" s="215"/>
-      <c r="D86" s="215"/>
-      <c r="E86" s="215"/>
-      <c r="F86" s="215"/>
-      <c r="G86" s="215"/>
-      <c r="L86" s="215" t="s">
+      <c r="B86" s="223"/>
+      <c r="C86" s="223"/>
+      <c r="D86" s="223"/>
+      <c r="E86" s="223"/>
+      <c r="F86" s="223"/>
+      <c r="G86" s="223"/>
+      <c r="L86" s="223" t="s">
         <v>3</v>
       </c>
-      <c r="M86" s="215"/>
-      <c r="N86" s="215"/>
-      <c r="O86" s="215"/>
-      <c r="P86" s="215"/>
-      <c r="Q86" s="215"/>
-      <c r="R86" s="215"/>
+      <c r="M86" s="223"/>
+      <c r="N86" s="223"/>
+      <c r="O86" s="223"/>
+      <c r="P86" s="223"/>
+      <c r="Q86" s="223"/>
+      <c r="R86" s="223"/>
     </row>
     <row r="87" spans="1:18">
       <c r="A87" s="108" t="s">
@@ -4203,24 +4281,24 @@
       </c>
     </row>
     <row r="97" spans="1:18">
-      <c r="A97" s="212" t="s">
+      <c r="A97" s="221" t="s">
         <v>4</v>
       </c>
-      <c r="B97" s="212"/>
-      <c r="C97" s="212"/>
-      <c r="D97" s="212"/>
-      <c r="E97" s="212"/>
-      <c r="F97" s="212"/>
-      <c r="G97" s="212"/>
-      <c r="L97" s="212" t="s">
+      <c r="B97" s="221"/>
+      <c r="C97" s="221"/>
+      <c r="D97" s="221"/>
+      <c r="E97" s="221"/>
+      <c r="F97" s="221"/>
+      <c r="G97" s="221"/>
+      <c r="L97" s="221" t="s">
         <v>4</v>
       </c>
-      <c r="M97" s="212"/>
-      <c r="N97" s="212"/>
-      <c r="O97" s="212"/>
-      <c r="P97" s="212"/>
-      <c r="Q97" s="212"/>
-      <c r="R97" s="212"/>
+      <c r="M97" s="221"/>
+      <c r="N97" s="221"/>
+      <c r="O97" s="221"/>
+      <c r="P97" s="221"/>
+      <c r="Q97" s="221"/>
+      <c r="R97" s="221"/>
     </row>
     <row r="98" spans="1:18">
       <c r="A98" s="108" t="s">
@@ -4647,24 +4725,24 @@
       <c r="R110" s="125"/>
     </row>
     <row r="117" spans="1:18">
-      <c r="A117" s="207" t="s">
+      <c r="A117" s="212" t="s">
         <v>79</v>
       </c>
-      <c r="B117" s="207"/>
-      <c r="C117" s="207"/>
-      <c r="D117" s="207"/>
-      <c r="E117" s="207"/>
-      <c r="F117" s="207"/>
-      <c r="G117" s="207"/>
-      <c r="L117" s="207" t="s">
+      <c r="B117" s="212"/>
+      <c r="C117" s="212"/>
+      <c r="D117" s="212"/>
+      <c r="E117" s="212"/>
+      <c r="F117" s="212"/>
+      <c r="G117" s="212"/>
+      <c r="L117" s="212" t="s">
         <v>84</v>
       </c>
-      <c r="M117" s="207"/>
-      <c r="N117" s="207"/>
-      <c r="O117" s="207"/>
-      <c r="P117" s="207"/>
-      <c r="Q117" s="207"/>
-      <c r="R117" s="207"/>
+      <c r="M117" s="212"/>
+      <c r="N117" s="212"/>
+      <c r="O117" s="212"/>
+      <c r="P117" s="212"/>
+      <c r="Q117" s="212"/>
+      <c r="R117" s="212"/>
     </row>
     <row r="118" spans="1:18">
       <c r="A118" s="146"/>
@@ -4683,110 +4761,110 @@
       <c r="R118" s="167"/>
     </row>
     <row r="119" spans="1:18">
-      <c r="A119" s="208" t="s">
+      <c r="A119" s="217" t="s">
         <v>80</v>
       </c>
-      <c r="B119" s="209" t="s">
+      <c r="B119" s="214" t="s">
         <v>81</v>
       </c>
-      <c r="C119" s="209"/>
-      <c r="D119" s="209"/>
-      <c r="E119" s="209"/>
-      <c r="F119" s="209"/>
-      <c r="G119" s="209"/>
-      <c r="L119" s="208" t="s">
+      <c r="C119" s="214"/>
+      <c r="D119" s="214"/>
+      <c r="E119" s="214"/>
+      <c r="F119" s="214"/>
+      <c r="G119" s="214"/>
+      <c r="L119" s="217" t="s">
         <v>80</v>
       </c>
-      <c r="M119" s="209" t="s">
+      <c r="M119" s="214" t="s">
         <v>85</v>
       </c>
-      <c r="N119" s="209"/>
-      <c r="O119" s="209"/>
-      <c r="P119" s="209"/>
-      <c r="Q119" s="209"/>
-      <c r="R119" s="209"/>
+      <c r="N119" s="214"/>
+      <c r="O119" s="214"/>
+      <c r="P119" s="214"/>
+      <c r="Q119" s="214"/>
+      <c r="R119" s="214"/>
     </row>
     <row r="120" spans="1:18">
-      <c r="A120" s="208"/>
-      <c r="B120" s="209" t="s">
+      <c r="A120" s="217"/>
+      <c r="B120" s="214" t="s">
         <v>3</v>
       </c>
-      <c r="C120" s="209"/>
-      <c r="D120" s="209"/>
-      <c r="E120" s="209" t="s">
+      <c r="C120" s="214"/>
+      <c r="D120" s="214"/>
+      <c r="E120" s="214" t="s">
         <v>4</v>
       </c>
-      <c r="F120" s="209"/>
-      <c r="G120" s="209"/>
-      <c r="L120" s="208"/>
-      <c r="M120" s="209" t="s">
+      <c r="F120" s="214"/>
+      <c r="G120" s="214"/>
+      <c r="L120" s="217"/>
+      <c r="M120" s="214" t="s">
         <v>3</v>
       </c>
-      <c r="N120" s="209"/>
-      <c r="O120" s="209"/>
-      <c r="P120" s="209" t="s">
+      <c r="N120" s="214"/>
+      <c r="O120" s="214"/>
+      <c r="P120" s="214" t="s">
         <v>4</v>
       </c>
-      <c r="Q120" s="209"/>
-      <c r="R120" s="209"/>
+      <c r="Q120" s="214"/>
+      <c r="R120" s="214"/>
     </row>
     <row r="121" spans="1:18">
-      <c r="A121" s="208"/>
-      <c r="B121" s="210" t="s">
+      <c r="A121" s="217"/>
+      <c r="B121" s="215" t="s">
         <v>5</v>
       </c>
-      <c r="C121" s="211" t="s">
+      <c r="C121" s="216" t="s">
         <v>31</v>
       </c>
-      <c r="D121" s="211"/>
-      <c r="E121" s="210" t="s">
+      <c r="D121" s="216"/>
+      <c r="E121" s="215" t="s">
         <v>5</v>
       </c>
-      <c r="F121" s="211" t="s">
+      <c r="F121" s="216" t="s">
         <v>31</v>
       </c>
-      <c r="G121" s="211"/>
-      <c r="L121" s="208"/>
-      <c r="M121" s="210" t="s">
+      <c r="G121" s="216"/>
+      <c r="L121" s="217"/>
+      <c r="M121" s="215" t="s">
         <v>5</v>
       </c>
-      <c r="N121" s="211" t="s">
+      <c r="N121" s="216" t="s">
         <v>31</v>
       </c>
-      <c r="O121" s="211"/>
-      <c r="P121" s="210" t="s">
+      <c r="O121" s="216"/>
+      <c r="P121" s="215" t="s">
         <v>5</v>
       </c>
-      <c r="Q121" s="211" t="s">
+      <c r="Q121" s="216" t="s">
         <v>31</v>
       </c>
-      <c r="R121" s="211"/>
+      <c r="R121" s="216"/>
     </row>
     <row r="122" spans="1:18" ht="18">
-      <c r="A122" s="208"/>
-      <c r="B122" s="210"/>
+      <c r="A122" s="217"/>
+      <c r="B122" s="215"/>
       <c r="C122" s="157" t="s">
         <v>82</v>
       </c>
       <c r="D122" s="158" t="s">
         <v>83</v>
       </c>
-      <c r="E122" s="210"/>
+      <c r="E122" s="215"/>
       <c r="F122" s="156" t="s">
         <v>82</v>
       </c>
       <c r="G122" s="165" t="s">
         <v>83</v>
       </c>
-      <c r="L122" s="208"/>
-      <c r="M122" s="210"/>
+      <c r="L122" s="217"/>
+      <c r="M122" s="215"/>
       <c r="N122" s="182" t="s">
         <v>82</v>
       </c>
       <c r="O122" s="183" t="s">
         <v>83</v>
       </c>
-      <c r="P122" s="210"/>
+      <c r="P122" s="215"/>
       <c r="Q122" s="181" t="s">
         <v>82</v>
       </c>
@@ -5332,24 +5410,60 @@
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="L3:L6"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="L117:R117"/>
+    <mergeCell ref="L119:L122"/>
+    <mergeCell ref="M119:R119"/>
+    <mergeCell ref="M120:O120"/>
+    <mergeCell ref="P120:R120"/>
+    <mergeCell ref="M121:M122"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="P121:P122"/>
+    <mergeCell ref="Q121:R121"/>
+    <mergeCell ref="A117:G117"/>
+    <mergeCell ref="A119:A122"/>
+    <mergeCell ref="B119:G119"/>
+    <mergeCell ref="B120:D120"/>
+    <mergeCell ref="E120:G120"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="C121:D121"/>
+    <mergeCell ref="E121:E122"/>
+    <mergeCell ref="F121:G121"/>
+    <mergeCell ref="L97:R97"/>
+    <mergeCell ref="L81:R81"/>
+    <mergeCell ref="L83:L85"/>
+    <mergeCell ref="M83:R83"/>
+    <mergeCell ref="M84:M85"/>
+    <mergeCell ref="N84:R84"/>
+    <mergeCell ref="L86:R86"/>
+    <mergeCell ref="A97:G97"/>
+    <mergeCell ref="A81:G81"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="B83:G83"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="A86:G86"/>
+    <mergeCell ref="L61:Q61"/>
+    <mergeCell ref="L63:L65"/>
+    <mergeCell ref="M63:P63"/>
+    <mergeCell ref="Q63:Q65"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="O64:P64"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="F63:F65"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="L34:S34"/>
+    <mergeCell ref="L36:L39"/>
+    <mergeCell ref="M36:R36"/>
+    <mergeCell ref="S36:S39"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="P37:R37"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P38:P39"/>
+    <mergeCell ref="Q38:R38"/>
     <mergeCell ref="A34:H34"/>
     <mergeCell ref="A36:A39"/>
     <mergeCell ref="B36:G36"/>
@@ -5360,60 +5474,24 @@
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="E38:E39"/>
     <mergeCell ref="F38:G38"/>
-    <mergeCell ref="L34:S34"/>
-    <mergeCell ref="L36:L39"/>
-    <mergeCell ref="M36:R36"/>
-    <mergeCell ref="S36:S39"/>
-    <mergeCell ref="M37:O37"/>
-    <mergeCell ref="P37:R37"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P38:P39"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="F63:F65"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="L61:Q61"/>
-    <mergeCell ref="L63:L65"/>
-    <mergeCell ref="M63:P63"/>
-    <mergeCell ref="Q63:Q65"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="O64:P64"/>
-    <mergeCell ref="A97:G97"/>
-    <mergeCell ref="A81:G81"/>
-    <mergeCell ref="A83:A85"/>
-    <mergeCell ref="B83:G83"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="C84:G84"/>
-    <mergeCell ref="A86:G86"/>
-    <mergeCell ref="L97:R97"/>
-    <mergeCell ref="L81:R81"/>
-    <mergeCell ref="L83:L85"/>
-    <mergeCell ref="M83:R83"/>
-    <mergeCell ref="M84:M85"/>
-    <mergeCell ref="N84:R84"/>
-    <mergeCell ref="L86:R86"/>
-    <mergeCell ref="A117:G117"/>
-    <mergeCell ref="A119:A122"/>
-    <mergeCell ref="B119:G119"/>
-    <mergeCell ref="B120:D120"/>
-    <mergeCell ref="E120:G120"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="C121:D121"/>
-    <mergeCell ref="E121:E122"/>
-    <mergeCell ref="F121:G121"/>
-    <mergeCell ref="L117:R117"/>
-    <mergeCell ref="L119:L122"/>
-    <mergeCell ref="M119:R119"/>
-    <mergeCell ref="M120:O120"/>
-    <mergeCell ref="P120:R120"/>
-    <mergeCell ref="M121:M122"/>
-    <mergeCell ref="N121:O121"/>
-    <mergeCell ref="P121:P122"/>
-    <mergeCell ref="Q121:R121"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="L3:L6"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -5424,30 +5502,30 @@
   <dimension ref="A1:R28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:U28"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
-      <c r="A1" s="219" t="s">
+    <row r="1" spans="1:18" ht="72.75" customHeight="1">
+      <c r="A1" s="207" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="219"/>
-      <c r="C1" s="219"/>
-      <c r="D1" s="219"/>
-      <c r="E1" s="219"/>
-      <c r="F1" s="219"/>
-      <c r="G1" s="219"/>
-      <c r="L1" s="207" t="s">
+      <c r="B1" s="207"/>
+      <c r="C1" s="207"/>
+      <c r="D1" s="207"/>
+      <c r="E1" s="207"/>
+      <c r="F1" s="207"/>
+      <c r="G1" s="207"/>
+      <c r="L1" s="212" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="207"/>
-      <c r="N1" s="207"/>
-      <c r="O1" s="207"/>
-      <c r="P1" s="207"/>
-      <c r="Q1" s="207"/>
-      <c r="R1" s="207"/>
+      <c r="M1" s="212"/>
+      <c r="N1" s="212"/>
+      <c r="O1" s="212"/>
+      <c r="P1" s="212"/>
+      <c r="Q1" s="212"/>
+      <c r="R1" s="212"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="2"/>
@@ -5466,110 +5544,110 @@
       <c r="R2" s="167"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="220" t="s">
+      <c r="A3" s="208" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="221" t="s">
+      <c r="B3" s="209" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="221"/>
-      <c r="D3" s="221"/>
-      <c r="E3" s="221"/>
-      <c r="F3" s="221"/>
-      <c r="G3" s="221"/>
-      <c r="L3" s="216" t="s">
+      <c r="C3" s="209"/>
+      <c r="D3" s="209"/>
+      <c r="E3" s="209"/>
+      <c r="F3" s="209"/>
+      <c r="G3" s="209"/>
+      <c r="L3" s="213" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="209" t="s">
+      <c r="M3" s="214" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="209"/>
-      <c r="O3" s="209"/>
-      <c r="P3" s="209"/>
-      <c r="Q3" s="209"/>
-      <c r="R3" s="209"/>
+      <c r="N3" s="214"/>
+      <c r="O3" s="214"/>
+      <c r="P3" s="214"/>
+      <c r="Q3" s="214"/>
+      <c r="R3" s="214"/>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" s="220"/>
-      <c r="B4" s="222" t="s">
+      <c r="A4" s="208"/>
+      <c r="B4" s="210" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="222"/>
-      <c r="D4" s="222"/>
-      <c r="E4" s="221" t="s">
+      <c r="C4" s="210"/>
+      <c r="D4" s="210"/>
+      <c r="E4" s="209" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="221"/>
-      <c r="G4" s="221"/>
-      <c r="L4" s="216"/>
-      <c r="M4" s="210" t="s">
+      <c r="F4" s="209"/>
+      <c r="G4" s="209"/>
+      <c r="L4" s="213"/>
+      <c r="M4" s="215" t="s">
         <v>3</v>
       </c>
-      <c r="N4" s="210"/>
-      <c r="O4" s="210"/>
-      <c r="P4" s="209" t="s">
+      <c r="N4" s="215"/>
+      <c r="O4" s="215"/>
+      <c r="P4" s="214" t="s">
         <v>4</v>
       </c>
-      <c r="Q4" s="209"/>
-      <c r="R4" s="209"/>
+      <c r="Q4" s="214"/>
+      <c r="R4" s="214"/>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="220"/>
-      <c r="B5" s="222" t="s">
+      <c r="A5" s="208"/>
+      <c r="B5" s="210" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="220" t="s">
+      <c r="C5" s="208" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="220"/>
-      <c r="E5" s="222" t="s">
+      <c r="D5" s="208"/>
+      <c r="E5" s="210" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="223" t="s">
+      <c r="F5" s="211" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="223"/>
-      <c r="L5" s="216"/>
-      <c r="M5" s="210" t="s">
+      <c r="G5" s="211"/>
+      <c r="L5" s="213"/>
+      <c r="M5" s="215" t="s">
         <v>5</v>
       </c>
-      <c r="N5" s="216" t="s">
+      <c r="N5" s="213" t="s">
         <v>6</v>
       </c>
-      <c r="O5" s="216"/>
-      <c r="P5" s="210" t="s">
+      <c r="O5" s="213"/>
+      <c r="P5" s="215" t="s">
         <v>5</v>
       </c>
-      <c r="Q5" s="211" t="s">
+      <c r="Q5" s="216" t="s">
         <v>6</v>
       </c>
-      <c r="R5" s="211"/>
+      <c r="R5" s="216"/>
     </row>
     <row r="6" spans="1:18" ht="27">
-      <c r="A6" s="220"/>
-      <c r="B6" s="222"/>
+      <c r="A6" s="208"/>
+      <c r="B6" s="210"/>
       <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="222"/>
+      <c r="E6" s="210"/>
       <c r="F6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="216"/>
-      <c r="M6" s="210"/>
+      <c r="L6" s="213"/>
+      <c r="M6" s="215"/>
       <c r="N6" s="21" t="s">
         <v>7</v>
       </c>
       <c r="O6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="210"/>
+      <c r="P6" s="215"/>
       <c r="Q6" s="21" t="s">
         <v>7</v>
       </c>
@@ -6399,14 +6477,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:O5"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="L1:R1"/>
     <mergeCell ref="A3:A6"/>
@@ -6417,6 +6487,14 @@
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="M4:O4"/>
     <mergeCell ref="P4:R4"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:O5"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -6427,32 +6505,32 @@
   <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:T21"/>
+      <selection activeCell="D29" sqref="D29:D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="207" t="s">
+      <c r="A1" s="212" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="207"/>
-      <c r="C1" s="207"/>
-      <c r="D1" s="207"/>
-      <c r="E1" s="207"/>
-      <c r="F1" s="207"/>
-      <c r="G1" s="207"/>
-      <c r="H1" s="207"/>
-      <c r="L1" s="207" t="s">
+      <c r="B1" s="212"/>
+      <c r="C1" s="212"/>
+      <c r="D1" s="212"/>
+      <c r="E1" s="212"/>
+      <c r="F1" s="212"/>
+      <c r="G1" s="212"/>
+      <c r="H1" s="212"/>
+      <c r="L1" s="212" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="207"/>
-      <c r="N1" s="207"/>
-      <c r="O1" s="207"/>
-      <c r="P1" s="207"/>
-      <c r="Q1" s="207"/>
-      <c r="R1" s="207"/>
-      <c r="S1" s="207"/>
+      <c r="M1" s="212"/>
+      <c r="N1" s="212"/>
+      <c r="O1" s="212"/>
+      <c r="P1" s="212"/>
+      <c r="Q1" s="212"/>
+      <c r="R1" s="212"/>
+      <c r="S1" s="212"/>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="167"/>
@@ -6473,105 +6551,105 @@
       <c r="S2" s="167"/>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="208" t="s">
+      <c r="A3" s="217" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="210" t="s">
+      <c r="B3" s="215" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="210"/>
-      <c r="D3" s="210"/>
-      <c r="E3" s="210"/>
-      <c r="F3" s="210"/>
-      <c r="G3" s="210"/>
+      <c r="C3" s="215"/>
+      <c r="D3" s="215"/>
+      <c r="E3" s="215"/>
+      <c r="F3" s="215"/>
+      <c r="G3" s="215"/>
       <c r="H3" s="218" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="208" t="s">
+      <c r="L3" s="217" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="210" t="s">
+      <c r="M3" s="215" t="s">
         <v>47</v>
       </c>
-      <c r="N3" s="210"/>
-      <c r="O3" s="210"/>
-      <c r="P3" s="210"/>
-      <c r="Q3" s="210"/>
-      <c r="R3" s="210"/>
+      <c r="N3" s="215"/>
+      <c r="O3" s="215"/>
+      <c r="P3" s="215"/>
+      <c r="Q3" s="215"/>
+      <c r="R3" s="215"/>
       <c r="S3" s="218" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="208"/>
-      <c r="B4" s="209" t="s">
+      <c r="A4" s="217"/>
+      <c r="B4" s="214" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="209"/>
-      <c r="D4" s="209"/>
-      <c r="E4" s="210" t="s">
+      <c r="C4" s="214"/>
+      <c r="D4" s="214"/>
+      <c r="E4" s="215" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="210"/>
-      <c r="G4" s="210"/>
+      <c r="F4" s="215"/>
+      <c r="G4" s="215"/>
       <c r="H4" s="218"/>
-      <c r="L4" s="208"/>
-      <c r="M4" s="209" t="s">
+      <c r="L4" s="217"/>
+      <c r="M4" s="214" t="s">
         <v>3</v>
       </c>
-      <c r="N4" s="209"/>
-      <c r="O4" s="209"/>
-      <c r="P4" s="210" t="s">
+      <c r="N4" s="214"/>
+      <c r="O4" s="214"/>
+      <c r="P4" s="215" t="s">
         <v>4</v>
       </c>
-      <c r="Q4" s="210"/>
-      <c r="R4" s="210"/>
+      <c r="Q4" s="215"/>
+      <c r="R4" s="215"/>
       <c r="S4" s="218"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="208"/>
-      <c r="B5" s="210" t="s">
+      <c r="A5" s="217"/>
+      <c r="B5" s="215" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="211" t="s">
+      <c r="C5" s="216" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="211"/>
-      <c r="E5" s="210" t="s">
+      <c r="D5" s="216"/>
+      <c r="E5" s="215" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="216" t="s">
+      <c r="F5" s="213" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="216"/>
+      <c r="G5" s="213"/>
       <c r="H5" s="218"/>
-      <c r="L5" s="208"/>
-      <c r="M5" s="210" t="s">
+      <c r="L5" s="217"/>
+      <c r="M5" s="215" t="s">
         <v>5</v>
       </c>
-      <c r="N5" s="211" t="s">
+      <c r="N5" s="216" t="s">
         <v>31</v>
       </c>
-      <c r="O5" s="211"/>
-      <c r="P5" s="210" t="s">
+      <c r="O5" s="216"/>
+      <c r="P5" s="215" t="s">
         <v>5</v>
       </c>
-      <c r="Q5" s="216" t="s">
+      <c r="Q5" s="213" t="s">
         <v>31</v>
       </c>
-      <c r="R5" s="216"/>
+      <c r="R5" s="213"/>
       <c r="S5" s="218"/>
     </row>
     <row r="6" spans="1:19" ht="18">
-      <c r="A6" s="208"/>
-      <c r="B6" s="210"/>
+      <c r="A6" s="217"/>
+      <c r="B6" s="215"/>
       <c r="C6" s="182" t="s">
         <v>32</v>
       </c>
       <c r="D6" s="183" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="210"/>
+      <c r="E6" s="215"/>
       <c r="F6" s="182" t="s">
         <v>32</v>
       </c>
@@ -6579,15 +6657,15 @@
         <v>33</v>
       </c>
       <c r="H6" s="218"/>
-      <c r="L6" s="208"/>
-      <c r="M6" s="210"/>
+      <c r="L6" s="217"/>
+      <c r="M6" s="215"/>
       <c r="N6" s="182" t="s">
         <v>32</v>
       </c>
       <c r="O6" s="183" t="s">
         <v>33</v>
       </c>
-      <c r="P6" s="210"/>
+      <c r="P6" s="215"/>
       <c r="Q6" s="182" t="s">
         <v>32</v>
       </c>
@@ -7204,6 +7282,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:R5"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="L1:S1"/>
     <mergeCell ref="A3:A6"/>
@@ -7220,10 +7302,6 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:G5"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:R5"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -7234,28 +7312,28 @@
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="207" t="s">
+      <c r="A1" s="212" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="207"/>
-      <c r="C1" s="207"/>
-      <c r="D1" s="207"/>
-      <c r="E1" s="207"/>
-      <c r="F1" s="207"/>
-      <c r="L1" s="207" t="s">
+      <c r="B1" s="212"/>
+      <c r="C1" s="212"/>
+      <c r="D1" s="212"/>
+      <c r="E1" s="212"/>
+      <c r="F1" s="212"/>
+      <c r="L1" s="212" t="s">
         <v>60</v>
       </c>
-      <c r="M1" s="207"/>
-      <c r="N1" s="207"/>
-      <c r="O1" s="207"/>
-      <c r="P1" s="207"/>
-      <c r="Q1" s="207"/>
+      <c r="M1" s="212"/>
+      <c r="N1" s="212"/>
+      <c r="O1" s="212"/>
+      <c r="P1" s="212"/>
+      <c r="Q1" s="212"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="192"/>
@@ -7272,55 +7350,55 @@
       <c r="Q2" s="193"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="216" t="s">
+      <c r="A3" s="213" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="210" t="s">
+      <c r="B3" s="215" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="210"/>
-      <c r="D3" s="210"/>
-      <c r="E3" s="210"/>
-      <c r="F3" s="211" t="s">
+      <c r="C3" s="215"/>
+      <c r="D3" s="215"/>
+      <c r="E3" s="215"/>
+      <c r="F3" s="216" t="s">
         <v>51</v>
       </c>
-      <c r="L3" s="216" t="s">
+      <c r="L3" s="213" t="s">
         <v>50</v>
       </c>
-      <c r="M3" s="210" t="s">
+      <c r="M3" s="215" t="s">
         <v>47</v>
       </c>
-      <c r="N3" s="210"/>
-      <c r="O3" s="210"/>
-      <c r="P3" s="210"/>
-      <c r="Q3" s="211" t="s">
+      <c r="N3" s="215"/>
+      <c r="O3" s="215"/>
+      <c r="P3" s="215"/>
+      <c r="Q3" s="216" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="216"/>
-      <c r="B4" s="213" t="s">
+      <c r="A4" s="213"/>
+      <c r="B4" s="219" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="213"/>
-      <c r="D4" s="217" t="s">
+      <c r="C4" s="219"/>
+      <c r="D4" s="220" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="217"/>
-      <c r="F4" s="211"/>
-      <c r="L4" s="216"/>
-      <c r="M4" s="213" t="s">
+      <c r="E4" s="220"/>
+      <c r="F4" s="216"/>
+      <c r="L4" s="213"/>
+      <c r="M4" s="219" t="s">
         <v>3</v>
       </c>
-      <c r="N4" s="213"/>
-      <c r="O4" s="217" t="s">
+      <c r="N4" s="219"/>
+      <c r="O4" s="220" t="s">
         <v>4</v>
       </c>
-      <c r="P4" s="217"/>
-      <c r="Q4" s="211"/>
+      <c r="P4" s="220"/>
+      <c r="Q4" s="216"/>
     </row>
     <row r="5" spans="1:17" ht="27">
-      <c r="A5" s="216"/>
+      <c r="A5" s="213"/>
       <c r="B5" s="179" t="s">
         <v>5</v>
       </c>
@@ -7333,8 +7411,8 @@
       <c r="E5" s="178" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="211"/>
-      <c r="L5" s="216"/>
+      <c r="F5" s="216"/>
+      <c r="L5" s="213"/>
       <c r="M5" s="179" t="s">
         <v>5</v>
       </c>
@@ -7347,7 +7425,7 @@
       <c r="P5" s="178" t="s">
         <v>52</v>
       </c>
-      <c r="Q5" s="211"/>
+      <c r="Q5" s="216"/>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="194" t="s">
@@ -7708,31 +7786,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="X20" sqref="X20"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33:D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="207" t="s">
+      <c r="A1" s="212" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="207"/>
-      <c r="C1" s="207"/>
-      <c r="D1" s="207"/>
-      <c r="E1" s="207"/>
-      <c r="F1" s="207"/>
-      <c r="G1" s="207"/>
-      <c r="L1" s="207" t="s">
+      <c r="B1" s="212"/>
+      <c r="C1" s="212"/>
+      <c r="D1" s="212"/>
+      <c r="E1" s="212"/>
+      <c r="F1" s="212"/>
+      <c r="G1" s="212"/>
+      <c r="L1" s="212" t="s">
         <v>78</v>
       </c>
-      <c r="M1" s="207"/>
-      <c r="N1" s="207"/>
-      <c r="O1" s="207"/>
-      <c r="P1" s="207"/>
-      <c r="Q1" s="207"/>
-      <c r="R1" s="207"/>
+      <c r="M1" s="212"/>
+      <c r="N1" s="212"/>
+      <c r="O1" s="212"/>
+      <c r="P1" s="212"/>
+      <c r="Q1" s="212"/>
+      <c r="R1" s="212"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="167"/>
@@ -7751,56 +7829,56 @@
       <c r="R2" s="167"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="208" t="s">
+      <c r="A3" s="217" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="213" t="s">
+      <c r="B3" s="219" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="213"/>
-      <c r="D3" s="213"/>
-      <c r="E3" s="213"/>
-      <c r="F3" s="213"/>
-      <c r="G3" s="213"/>
-      <c r="L3" s="208" t="s">
+      <c r="C3" s="219"/>
+      <c r="D3" s="219"/>
+      <c r="E3" s="219"/>
+      <c r="F3" s="219"/>
+      <c r="G3" s="219"/>
+      <c r="L3" s="217" t="s">
         <v>63</v>
       </c>
-      <c r="M3" s="213" t="s">
+      <c r="M3" s="219" t="s">
         <v>47</v>
       </c>
-      <c r="N3" s="213"/>
-      <c r="O3" s="213"/>
-      <c r="P3" s="213"/>
-      <c r="Q3" s="213"/>
-      <c r="R3" s="213"/>
+      <c r="N3" s="219"/>
+      <c r="O3" s="219"/>
+      <c r="P3" s="219"/>
+      <c r="Q3" s="219"/>
+      <c r="R3" s="219"/>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" s="208"/>
-      <c r="B4" s="214" t="s">
+      <c r="A4" s="217"/>
+      <c r="B4" s="222" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="211" t="s">
+      <c r="C4" s="216" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="211"/>
-      <c r="E4" s="211"/>
-      <c r="F4" s="211"/>
-      <c r="G4" s="211"/>
-      <c r="L4" s="208"/>
-      <c r="M4" s="214" t="s">
+      <c r="D4" s="216"/>
+      <c r="E4" s="216"/>
+      <c r="F4" s="216"/>
+      <c r="G4" s="216"/>
+      <c r="L4" s="217"/>
+      <c r="M4" s="222" t="s">
         <v>5</v>
       </c>
-      <c r="N4" s="211" t="s">
+      <c r="N4" s="216" t="s">
         <v>64</v>
       </c>
-      <c r="O4" s="211"/>
-      <c r="P4" s="211"/>
-      <c r="Q4" s="211"/>
-      <c r="R4" s="211"/>
+      <c r="O4" s="216"/>
+      <c r="P4" s="216"/>
+      <c r="Q4" s="216"/>
+      <c r="R4" s="216"/>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="208"/>
-      <c r="B5" s="214"/>
+      <c r="A5" s="217"/>
+      <c r="B5" s="222"/>
       <c r="C5" s="204" t="s">
         <v>65</v>
       </c>
@@ -7816,8 +7894,8 @@
       <c r="G5" s="203" t="s">
         <v>69</v>
       </c>
-      <c r="L5" s="208"/>
-      <c r="M5" s="214"/>
+      <c r="L5" s="217"/>
+      <c r="M5" s="222"/>
       <c r="N5" s="204" t="s">
         <v>65</v>
       </c>
@@ -7835,24 +7913,24 @@
       </c>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="215" t="s">
+      <c r="A6" s="223" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="215"/>
-      <c r="C6" s="215"/>
-      <c r="D6" s="215"/>
-      <c r="E6" s="215"/>
-      <c r="F6" s="215"/>
-      <c r="G6" s="215"/>
-      <c r="L6" s="215" t="s">
+      <c r="B6" s="223"/>
+      <c r="C6" s="223"/>
+      <c r="D6" s="223"/>
+      <c r="E6" s="223"/>
+      <c r="F6" s="223"/>
+      <c r="G6" s="223"/>
+      <c r="L6" s="223" t="s">
         <v>3</v>
       </c>
-      <c r="M6" s="215"/>
-      <c r="N6" s="215"/>
-      <c r="O6" s="215"/>
-      <c r="P6" s="215"/>
-      <c r="Q6" s="215"/>
-      <c r="R6" s="215"/>
+      <c r="M6" s="223"/>
+      <c r="N6" s="223"/>
+      <c r="O6" s="223"/>
+      <c r="P6" s="223"/>
+      <c r="Q6" s="223"/>
+      <c r="R6" s="223"/>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="168" t="s">
@@ -8223,24 +8301,24 @@
       </c>
     </row>
     <row r="17" spans="1:18">
-      <c r="A17" s="212" t="s">
+      <c r="A17" s="221" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="212"/>
-      <c r="C17" s="212"/>
-      <c r="D17" s="212"/>
-      <c r="E17" s="212"/>
-      <c r="F17" s="212"/>
-      <c r="G17" s="212"/>
-      <c r="L17" s="212" t="s">
+      <c r="B17" s="221"/>
+      <c r="C17" s="221"/>
+      <c r="D17" s="221"/>
+      <c r="E17" s="221"/>
+      <c r="F17" s="221"/>
+      <c r="G17" s="221"/>
+      <c r="L17" s="221" t="s">
         <v>4</v>
       </c>
-      <c r="M17" s="212"/>
-      <c r="N17" s="212"/>
-      <c r="O17" s="212"/>
-      <c r="P17" s="212"/>
-      <c r="Q17" s="212"/>
-      <c r="R17" s="212"/>
+      <c r="M17" s="221"/>
+      <c r="N17" s="221"/>
+      <c r="O17" s="221"/>
+      <c r="P17" s="221"/>
+      <c r="Q17" s="221"/>
+      <c r="R17" s="221"/>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="168" t="s">
@@ -8689,718 +8767,620 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:U20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Y17" sqref="Y17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
-      <c r="A1" s="207" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1" s="207"/>
-      <c r="C1" s="207"/>
-      <c r="D1" s="207"/>
-      <c r="E1" s="207"/>
-      <c r="F1" s="207"/>
-      <c r="G1" s="207"/>
-      <c r="L1" s="207" t="s">
-        <v>84</v>
-      </c>
-      <c r="M1" s="207"/>
-      <c r="N1" s="207"/>
-      <c r="O1" s="207"/>
-      <c r="P1" s="207"/>
-      <c r="Q1" s="207"/>
-      <c r="R1" s="207"/>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="A2" s="167"/>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="L2" s="167"/>
-      <c r="M2" s="167"/>
-      <c r="N2" s="167"/>
-      <c r="O2" s="167"/>
-      <c r="P2" s="167"/>
-      <c r="Q2" s="167"/>
-      <c r="R2" s="167"/>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="A3" s="208" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3" s="209" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" s="209"/>
-      <c r="D3" s="209"/>
-      <c r="E3" s="209"/>
-      <c r="F3" s="209"/>
-      <c r="G3" s="209"/>
-      <c r="L3" s="208" t="s">
-        <v>80</v>
-      </c>
-      <c r="M3" s="209" t="s">
-        <v>85</v>
-      </c>
-      <c r="N3" s="209"/>
-      <c r="O3" s="209"/>
-      <c r="P3" s="209"/>
-      <c r="Q3" s="209"/>
-      <c r="R3" s="209"/>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" s="208"/>
-      <c r="B4" s="209" t="s">
+    <row r="1" spans="1:21">
+      <c r="A1" s="224" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="224"/>
+      <c r="C1" s="224"/>
+      <c r="D1" s="224"/>
+      <c r="E1" s="224"/>
+      <c r="F1" s="224"/>
+      <c r="G1" s="224"/>
+      <c r="H1" s="225"/>
+      <c r="M1" s="224" t="s">
+        <v>92</v>
+      </c>
+      <c r="N1" s="224"/>
+      <c r="O1" s="224"/>
+      <c r="P1" s="224"/>
+      <c r="Q1" s="224"/>
+      <c r="R1" s="224"/>
+      <c r="S1" s="224"/>
+      <c r="T1" s="225"/>
+      <c r="U1" s="237"/>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" s="226"/>
+      <c r="B2" s="226"/>
+      <c r="C2" s="226"/>
+      <c r="D2" s="226"/>
+      <c r="E2" s="226"/>
+      <c r="F2" s="226"/>
+      <c r="G2" s="226"/>
+      <c r="H2" s="225"/>
+      <c r="M2" s="226"/>
+      <c r="N2" s="226"/>
+      <c r="O2" s="226"/>
+      <c r="P2" s="226"/>
+      <c r="Q2" s="226"/>
+      <c r="R2" s="226"/>
+      <c r="S2" s="226"/>
+      <c r="T2" s="225"/>
+      <c r="U2" s="237"/>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" s="227" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="228" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="228"/>
+      <c r="D3" s="228"/>
+      <c r="E3" s="228" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" s="228"/>
+      <c r="G3" s="228"/>
+      <c r="H3" s="225"/>
+      <c r="M3" s="227" t="s">
+        <v>64</v>
+      </c>
+      <c r="N3" s="228" t="s">
+        <v>93</v>
+      </c>
+      <c r="O3" s="228"/>
+      <c r="P3" s="228"/>
+      <c r="Q3" s="228" t="s">
+        <v>94</v>
+      </c>
+      <c r="R3" s="228"/>
+      <c r="S3" s="228"/>
+      <c r="T3" s="225"/>
+      <c r="U3" s="237"/>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" s="227"/>
+      <c r="B4" s="229" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="227" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="227"/>
+      <c r="E4" s="230" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="231" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="231"/>
+      <c r="H4" s="225"/>
+      <c r="M4" s="227"/>
+      <c r="N4" s="229" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" s="227" t="s">
+        <v>6</v>
+      </c>
+      <c r="P4" s="227"/>
+      <c r="Q4" s="230" t="s">
+        <v>5</v>
+      </c>
+      <c r="R4" s="231" t="s">
+        <v>6</v>
+      </c>
+      <c r="S4" s="231"/>
+      <c r="T4" s="225"/>
+      <c r="U4" s="237"/>
+    </row>
+    <row r="5" spans="1:21" ht="27">
+      <c r="A5" s="227"/>
+      <c r="B5" s="229"/>
+      <c r="C5" s="232" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="233" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="230"/>
+      <c r="F5" s="232" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="233" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="225"/>
+      <c r="M5" s="227"/>
+      <c r="N5" s="229"/>
+      <c r="O5" s="232" t="s">
+        <v>7</v>
+      </c>
+      <c r="P5" s="233" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q5" s="230"/>
+      <c r="R5" s="232" t="s">
+        <v>7</v>
+      </c>
+      <c r="S5" s="233" t="s">
+        <v>8</v>
+      </c>
+      <c r="T5" s="225"/>
+      <c r="U5" s="237"/>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" s="234" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="235">
+        <v>5213</v>
+      </c>
+      <c r="C6" s="235">
+        <v>4904</v>
+      </c>
+      <c r="D6" s="235">
+        <v>5235</v>
+      </c>
+      <c r="E6" s="235">
+        <v>3724</v>
+      </c>
+      <c r="F6" s="235">
+        <v>3800</v>
+      </c>
+      <c r="G6" s="235">
+        <v>3706</v>
+      </c>
+      <c r="H6" s="225"/>
+      <c r="M6" s="234" t="s">
+        <v>89</v>
+      </c>
+      <c r="N6" s="244">
+        <v>1.5</v>
+      </c>
+      <c r="O6" s="244">
+        <v>3.9</v>
+      </c>
+      <c r="P6" s="244">
+        <v>1.6</v>
+      </c>
+      <c r="Q6" s="244">
+        <v>0.9</v>
+      </c>
+      <c r="R6" s="244">
+        <v>3.4</v>
+      </c>
+      <c r="S6" s="244">
+        <v>1</v>
+      </c>
+      <c r="T6" s="225"/>
+      <c r="U6" s="237"/>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" s="236" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="235">
+        <v>4350</v>
+      </c>
+      <c r="C7" s="235">
+        <v>3933</v>
+      </c>
+      <c r="D7" s="235">
+        <v>4373</v>
+      </c>
+      <c r="E7" s="235">
+        <v>3024</v>
+      </c>
+      <c r="F7" s="235">
+        <v>3008</v>
+      </c>
+      <c r="G7" s="235">
+        <v>3024</v>
+      </c>
+      <c r="H7" s="237"/>
+      <c r="M7" s="236" t="s">
+        <v>65</v>
+      </c>
+      <c r="N7" s="244">
+        <v>3.1</v>
+      </c>
+      <c r="O7" s="244">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="P7" s="244">
+        <v>3.2</v>
+      </c>
+      <c r="Q7" s="244">
+        <v>2.5</v>
+      </c>
+      <c r="R7" s="244">
+        <v>10.8</v>
+      </c>
+      <c r="S7" s="244">
+        <v>2.7</v>
+      </c>
+      <c r="T7" s="237"/>
+      <c r="U7" s="237"/>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8" s="236" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="235">
+        <v>4050</v>
+      </c>
+      <c r="C8" s="235">
+        <v>3479</v>
+      </c>
+      <c r="D8" s="235">
+        <v>4080</v>
+      </c>
+      <c r="E8" s="235">
+        <v>2724</v>
+      </c>
+      <c r="F8" s="235">
+        <v>2730</v>
+      </c>
+      <c r="G8" s="235">
+        <v>2724</v>
+      </c>
+      <c r="H8" s="237"/>
+      <c r="M8" s="236" t="s">
+        <v>66</v>
+      </c>
+      <c r="N8" s="244">
+        <v>2.9</v>
+      </c>
+      <c r="O8" s="244">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="P8" s="244">
         <v>3</v>
       </c>
-      <c r="C4" s="209"/>
-      <c r="D4" s="209"/>
-      <c r="E4" s="209" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="209"/>
-      <c r="G4" s="209"/>
-      <c r="L4" s="208"/>
-      <c r="M4" s="209" t="s">
-        <v>3</v>
-      </c>
-      <c r="N4" s="209"/>
-      <c r="O4" s="209"/>
-      <c r="P4" s="209" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q4" s="209"/>
-      <c r="R4" s="209"/>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="208"/>
-      <c r="B5" s="210" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="211" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="211"/>
-      <c r="E5" s="210" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="211" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="211"/>
-      <c r="L5" s="208"/>
-      <c r="M5" s="210" t="s">
-        <v>5</v>
-      </c>
-      <c r="N5" s="211" t="s">
-        <v>31</v>
-      </c>
-      <c r="O5" s="211"/>
-      <c r="P5" s="210" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q5" s="211" t="s">
-        <v>31</v>
-      </c>
-      <c r="R5" s="211"/>
-    </row>
-    <row r="6" spans="1:18" ht="18">
-      <c r="A6" s="208"/>
-      <c r="B6" s="210"/>
-      <c r="C6" s="182" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" s="183" t="s">
-        <v>83</v>
-      </c>
-      <c r="E6" s="210"/>
-      <c r="F6" s="181" t="s">
-        <v>82</v>
-      </c>
-      <c r="G6" s="203" t="s">
-        <v>83</v>
-      </c>
-      <c r="L6" s="208"/>
-      <c r="M6" s="210"/>
-      <c r="N6" s="182" t="s">
-        <v>82</v>
-      </c>
-      <c r="O6" s="183" t="s">
-        <v>83</v>
-      </c>
-      <c r="P6" s="210"/>
-      <c r="Q6" s="181" t="s">
-        <v>82</v>
-      </c>
-      <c r="R6" s="203" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="A7" s="168" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="191">
-        <v>1203.577</v>
-      </c>
-      <c r="C7" s="191">
-        <v>1033.6600000000001</v>
-      </c>
-      <c r="D7" s="191">
-        <v>169.917</v>
-      </c>
-      <c r="E7" s="184">
-        <v>100</v>
-      </c>
-      <c r="F7" s="184">
-        <v>100</v>
-      </c>
-      <c r="G7" s="184">
-        <v>100</v>
-      </c>
-      <c r="L7" s="168" t="s">
-        <v>5</v>
-      </c>
-      <c r="M7" s="184">
-        <v>3.1</v>
-      </c>
-      <c r="N7" s="184">
-        <v>3.3</v>
-      </c>
-      <c r="O7" s="184">
-        <v>6.9</v>
-      </c>
-      <c r="P7" s="184">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="184">
-        <v>0</v>
-      </c>
-      <c r="R7" s="184">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="A8" s="186" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="206"/>
-      <c r="C8" s="206"/>
-      <c r="D8" s="206"/>
-      <c r="E8" s="187"/>
-      <c r="F8" s="187"/>
-      <c r="G8" s="187"/>
-      <c r="L8" s="186" t="s">
-        <v>34</v>
-      </c>
-      <c r="M8" s="187"/>
-      <c r="N8" s="187"/>
-      <c r="O8" s="187"/>
-      <c r="P8" s="187"/>
-      <c r="Q8" s="187"/>
-      <c r="R8" s="187"/>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="A9" s="172" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="191">
-        <v>227.39599999999999</v>
-      </c>
-      <c r="C9" s="191">
-        <v>197.99299999999999</v>
-      </c>
-      <c r="D9" s="191">
-        <v>29.402999999999999</v>
-      </c>
-      <c r="E9" s="184">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="F9" s="184">
-        <v>19.2</v>
-      </c>
-      <c r="G9" s="184">
-        <v>17.3</v>
-      </c>
-      <c r="L9" s="172" t="s">
-        <v>35</v>
-      </c>
-      <c r="M9" s="184">
-        <v>7</v>
-      </c>
-      <c r="N9" s="184">
+      <c r="Q8" s="244">
+        <v>2.6</v>
+      </c>
+      <c r="R8" s="244">
+        <v>7.4</v>
+      </c>
+      <c r="S8" s="244">
+        <v>2.6</v>
+      </c>
+      <c r="T8" s="237"/>
+      <c r="U8" s="237"/>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" s="236" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="235">
+        <v>5783</v>
+      </c>
+      <c r="C9" s="235">
+        <v>5273</v>
+      </c>
+      <c r="D9" s="235">
+        <v>5826</v>
+      </c>
+      <c r="E9" s="235">
+        <v>4160</v>
+      </c>
+      <c r="F9" s="235">
+        <v>4000</v>
+      </c>
+      <c r="G9" s="235">
+        <v>4200</v>
+      </c>
+      <c r="H9" s="237"/>
+      <c r="M9" s="236" t="s">
+        <v>67</v>
+      </c>
+      <c r="N9" s="244">
+        <v>2.7</v>
+      </c>
+      <c r="O9" s="244">
+        <v>5.6</v>
+      </c>
+      <c r="P9" s="244">
+        <v>2.9</v>
+      </c>
+      <c r="Q9" s="244">
+        <v>1.8</v>
+      </c>
+      <c r="R9" s="244">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="S9" s="244">
+        <v>1.8</v>
+      </c>
+      <c r="T9" s="237"/>
+      <c r="U9" s="237"/>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10" s="236" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="235">
+        <v>5580</v>
+      </c>
+      <c r="C10" s="235">
+        <v>5493</v>
+      </c>
+      <c r="D10" s="235">
+        <v>5586</v>
+      </c>
+      <c r="E10" s="235">
+        <v>4300</v>
+      </c>
+      <c r="F10" s="235">
+        <v>4136</v>
+      </c>
+      <c r="G10" s="235">
+        <v>4300</v>
+      </c>
+      <c r="H10" s="237"/>
+      <c r="M10" s="236" t="s">
+        <v>68</v>
+      </c>
+      <c r="N10" s="244">
+        <v>2.5</v>
+      </c>
+      <c r="O10" s="244">
+        <v>10.3</v>
+      </c>
+      <c r="P10" s="244">
+        <v>2.6</v>
+      </c>
+      <c r="Q10" s="244">
+        <v>2.4</v>
+      </c>
+      <c r="R10" s="244">
         <v>7.1</v>
       </c>
-      <c r="O9" s="184">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="P9" s="184">
-        <v>5.9</v>
-      </c>
-      <c r="Q9" s="184">
-        <v>6.1</v>
-      </c>
-      <c r="R9" s="184">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="A10" s="172" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="191">
-        <v>976.18100000000004</v>
-      </c>
-      <c r="C10" s="191">
-        <v>835.66700000000003</v>
-      </c>
-      <c r="D10" s="191">
-        <v>140.51400000000001</v>
-      </c>
-      <c r="E10" s="184">
-        <v>81.099999999999994</v>
-      </c>
-      <c r="F10" s="184">
-        <v>80.8</v>
-      </c>
-      <c r="G10" s="184">
-        <v>82.7</v>
-      </c>
-      <c r="L10" s="172" t="s">
-        <v>36</v>
-      </c>
-      <c r="M10" s="184">
-        <v>3.3</v>
-      </c>
-      <c r="N10" s="184">
-        <v>3.5</v>
-      </c>
-      <c r="O10" s="184">
-        <v>7.6</v>
-      </c>
-      <c r="P10" s="184">
-        <v>1.4</v>
-      </c>
-      <c r="Q10" s="184">
-        <v>1.4</v>
-      </c>
-      <c r="R10" s="184">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="A11" s="186" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="206"/>
-      <c r="C11" s="206"/>
-      <c r="D11" s="206"/>
-      <c r="E11" s="187"/>
-      <c r="F11" s="187"/>
-      <c r="G11" s="187"/>
-      <c r="L11" s="186" t="s">
-        <v>37</v>
-      </c>
-      <c r="M11" s="187"/>
-      <c r="N11" s="187"/>
-      <c r="O11" s="187"/>
-      <c r="P11" s="187"/>
-      <c r="Q11" s="187"/>
-      <c r="R11" s="187"/>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="A12" s="172" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="191">
-        <v>1091.8119999999999</v>
-      </c>
-      <c r="C12" s="191">
-        <v>931.72199999999998</v>
-      </c>
-      <c r="D12" s="191">
-        <v>160.09</v>
-      </c>
-      <c r="E12" s="184">
-        <v>90.7</v>
-      </c>
-      <c r="F12" s="184">
-        <v>90.1</v>
-      </c>
-      <c r="G12" s="184">
-        <v>94.2</v>
-      </c>
-      <c r="L12" s="172" t="s">
-        <v>38</v>
-      </c>
-      <c r="M12" s="184">
-        <v>3.3</v>
-      </c>
-      <c r="N12" s="184">
-        <v>3.5</v>
-      </c>
-      <c r="O12" s="184">
-        <v>7.1</v>
-      </c>
-      <c r="P12" s="184">
-        <v>0.8</v>
-      </c>
-      <c r="Q12" s="184">
-        <v>0.9</v>
-      </c>
-      <c r="R12" s="184">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="A13" s="172" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="191">
-        <v>111.765</v>
-      </c>
-      <c r="C13" s="191">
-        <v>101.938</v>
-      </c>
-      <c r="D13" s="191">
-        <v>9.827</v>
-      </c>
-      <c r="E13" s="184">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="F13" s="184">
-        <v>9.9</v>
-      </c>
-      <c r="G13" s="184">
-        <v>5.8</v>
-      </c>
-      <c r="L13" s="172" t="s">
-        <v>39</v>
-      </c>
-      <c r="M13" s="184">
-        <v>7.8</v>
-      </c>
-      <c r="N13" s="184">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="O13" s="184">
-        <v>25.7</v>
-      </c>
-      <c r="P13" s="184">
-        <v>7.6</v>
-      </c>
-      <c r="Q13" s="184">
-        <v>7.8</v>
-      </c>
-      <c r="R13" s="184">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="A14" s="170" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="206"/>
-      <c r="C14" s="206"/>
-      <c r="D14" s="206"/>
-      <c r="E14" s="187"/>
-      <c r="F14" s="187"/>
-      <c r="G14" s="187"/>
-      <c r="L14" s="170" t="s">
-        <v>40</v>
-      </c>
-      <c r="M14" s="187"/>
-      <c r="N14" s="187"/>
-      <c r="O14" s="187"/>
-      <c r="P14" s="187"/>
-      <c r="Q14" s="187"/>
-      <c r="R14" s="187"/>
-    </row>
-    <row r="15" spans="1:18" ht="28.5">
-      <c r="A15" s="188" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="191">
-        <v>1091.8119999999999</v>
-      </c>
-      <c r="C15" s="191">
-        <v>931.72199999999998</v>
-      </c>
-      <c r="D15" s="191">
-        <v>160.09</v>
-      </c>
-      <c r="E15" s="184">
-        <v>100</v>
-      </c>
-      <c r="F15" s="184">
-        <v>100</v>
-      </c>
-      <c r="G15" s="184">
-        <v>100</v>
-      </c>
-      <c r="L15" s="188" t="s">
-        <v>41</v>
-      </c>
-      <c r="M15" s="184">
-        <v>3.3</v>
-      </c>
-      <c r="N15" s="184">
-        <v>3.5</v>
-      </c>
-      <c r="O15" s="184">
-        <v>7.1</v>
-      </c>
-      <c r="P15" s="184">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="184">
-        <v>0</v>
-      </c>
-      <c r="R15" s="184">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="A16" s="189" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="191">
-        <v>124.482</v>
-      </c>
-      <c r="C16" s="191">
-        <v>107.095</v>
-      </c>
-      <c r="D16" s="191">
-        <v>17.387</v>
-      </c>
-      <c r="E16" s="184">
-        <v>11.4</v>
-      </c>
-      <c r="F16" s="184">
-        <v>11.5</v>
-      </c>
-      <c r="G16" s="184">
-        <v>10.9</v>
-      </c>
-      <c r="L16" s="189" t="s">
-        <v>42</v>
-      </c>
-      <c r="M16" s="184">
-        <v>7.7</v>
-      </c>
-      <c r="N16" s="184">
-        <v>8.4</v>
-      </c>
-      <c r="O16" s="184">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="P16" s="184">
-        <v>7.3</v>
-      </c>
-      <c r="Q16" s="184">
-        <v>7.9</v>
-      </c>
-      <c r="R16" s="184">
-        <v>18.399999999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
-      <c r="A17" s="189" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="191">
-        <v>36.709000000000003</v>
-      </c>
-      <c r="C17" s="191">
-        <v>27.225999999999999</v>
-      </c>
-      <c r="D17" s="191">
-        <v>9.4830000000000005</v>
-      </c>
-      <c r="E17" s="184">
-        <v>3.4</v>
-      </c>
-      <c r="F17" s="184">
-        <v>2.9</v>
-      </c>
-      <c r="G17" s="184">
-        <v>5.9</v>
-      </c>
-      <c r="L17" s="189" t="s">
-        <v>43</v>
-      </c>
-      <c r="M17" s="184">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="N17" s="184">
-        <v>17.399999999999999</v>
-      </c>
-      <c r="O17" s="184">
-        <v>34.200000000000003</v>
-      </c>
-      <c r="P17" s="184">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="Q17" s="184">
-        <v>16.8</v>
-      </c>
-      <c r="R17" s="184">
-        <v>32.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
-      <c r="A18" s="189" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="191">
-        <v>824.91899999999998</v>
-      </c>
-      <c r="C18" s="191">
-        <v>703.45500000000004</v>
-      </c>
-      <c r="D18" s="191">
-        <v>121.464</v>
-      </c>
-      <c r="E18" s="184">
-        <v>75.599999999999994</v>
-      </c>
-      <c r="F18" s="184">
-        <v>75.5</v>
-      </c>
-      <c r="G18" s="184">
-        <v>75.900000000000006</v>
-      </c>
-      <c r="L18" s="189" t="s">
-        <v>44</v>
-      </c>
-      <c r="M18" s="184">
-        <v>3.6</v>
-      </c>
-      <c r="N18" s="184">
+      <c r="S10" s="244">
+        <v>2.4</v>
+      </c>
+      <c r="T10" s="237"/>
+      <c r="U10" s="237"/>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11" s="238" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="235">
+        <v>5642</v>
+      </c>
+      <c r="C11" s="235">
+        <v>5365</v>
+      </c>
+      <c r="D11" s="235">
+        <v>5661</v>
+      </c>
+      <c r="E11" s="235">
+        <v>3877</v>
+      </c>
+      <c r="F11" s="235">
+        <v>3917</v>
+      </c>
+      <c r="G11" s="235">
+        <v>3853</v>
+      </c>
+      <c r="H11" s="237"/>
+      <c r="M11" s="238" t="s">
+        <v>69</v>
+      </c>
+      <c r="N11" s="244">
+        <v>3.8</v>
+      </c>
+      <c r="O11" s="244">
+        <v>9.1</v>
+      </c>
+      <c r="P11" s="244">
         <v>3.9</v>
       </c>
-      <c r="O18" s="184">
-        <v>8</v>
-      </c>
-      <c r="P18" s="184">
-        <v>1.5</v>
-      </c>
-      <c r="Q18" s="184">
-        <v>1.6</v>
-      </c>
-      <c r="R18" s="184">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
-      <c r="A19" s="189" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="191">
-        <v>105.702</v>
-      </c>
-      <c r="C19" s="191">
-        <v>93.945999999999998</v>
-      </c>
-      <c r="D19" s="191">
-        <v>11.756</v>
-      </c>
-      <c r="E19" s="184">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="F19" s="184">
-        <v>10.1</v>
-      </c>
-      <c r="G19" s="184">
-        <v>7.3</v>
-      </c>
-      <c r="L19" s="189" t="s">
-        <v>45</v>
-      </c>
-      <c r="M19" s="184">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="N19" s="184">
-        <v>9.4</v>
-      </c>
-      <c r="O19" s="184">
-        <v>24.4</v>
-      </c>
-      <c r="P19" s="184">
-        <v>8.1</v>
-      </c>
-      <c r="Q19" s="184">
-        <v>8.6</v>
-      </c>
-      <c r="R19" s="184">
-        <v>23.6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
-      <c r="A20" s="173"/>
-      <c r="B20" s="174"/>
-      <c r="C20" s="174"/>
-      <c r="D20" s="174"/>
-      <c r="E20" s="174"/>
-      <c r="F20" s="174"/>
-      <c r="G20" s="167"/>
-      <c r="L20" s="173"/>
-      <c r="M20" s="174"/>
-      <c r="N20" s="174"/>
-      <c r="O20" s="174"/>
-      <c r="P20" s="174"/>
-      <c r="Q20" s="174"/>
-      <c r="R20" s="167"/>
-    </row>
-    <row r="21" spans="1:18">
-      <c r="A21" s="175" t="s">
+      <c r="Q11" s="244">
+        <v>2.6</v>
+      </c>
+      <c r="R11" s="244">
+        <v>10.8</v>
+      </c>
+      <c r="S11" s="244">
+        <v>2.6</v>
+      </c>
+      <c r="T11" s="237"/>
+      <c r="U11" s="237"/>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12" s="239"/>
+      <c r="B12" s="240"/>
+      <c r="C12" s="240"/>
+      <c r="D12" s="240"/>
+      <c r="E12" s="240"/>
+      <c r="F12" s="240"/>
+      <c r="G12" s="240"/>
+      <c r="H12" s="237"/>
+      <c r="M12" s="239"/>
+      <c r="N12" s="240"/>
+      <c r="O12" s="240"/>
+      <c r="P12" s="240"/>
+      <c r="Q12" s="240"/>
+      <c r="R12" s="240"/>
+      <c r="S12" s="240"/>
+      <c r="T12" s="237"/>
+      <c r="U12" s="237"/>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" s="241" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="176"/>
-      <c r="C21" s="176"/>
-      <c r="D21" s="176"/>
-      <c r="E21" s="176"/>
-      <c r="F21" s="176"/>
-      <c r="G21" s="166"/>
-      <c r="L21" s="175" t="s">
+      <c r="B13" s="242"/>
+      <c r="C13" s="242"/>
+      <c r="D13" s="242"/>
+      <c r="E13" s="242"/>
+      <c r="F13" s="242"/>
+      <c r="G13" s="242"/>
+      <c r="H13" s="237"/>
+      <c r="M13" s="241" t="s">
         <v>22</v>
       </c>
-      <c r="M21" s="176"/>
-      <c r="N21" s="176"/>
-      <c r="O21" s="176"/>
-      <c r="P21" s="176"/>
-      <c r="Q21" s="176"/>
-      <c r="R21" s="166"/>
+      <c r="N13" s="242"/>
+      <c r="O13" s="242"/>
+      <c r="P13" s="242"/>
+      <c r="Q13" s="242"/>
+      <c r="R13" s="242"/>
+      <c r="S13" s="242"/>
+      <c r="T13" s="237"/>
+      <c r="U13" s="237"/>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14" s="243" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" s="243"/>
+      <c r="C14" s="243"/>
+      <c r="D14" s="243"/>
+      <c r="E14" s="243"/>
+      <c r="F14" s="243"/>
+      <c r="G14" s="243"/>
+      <c r="H14" s="237"/>
+      <c r="M14" s="243" t="s">
+        <v>90</v>
+      </c>
+      <c r="N14" s="243"/>
+      <c r="O14" s="243"/>
+      <c r="P14" s="243"/>
+      <c r="Q14" s="243"/>
+      <c r="R14" s="243"/>
+      <c r="S14" s="243"/>
+      <c r="T14" s="237"/>
+      <c r="U14" s="237"/>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15" s="243" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="243"/>
+      <c r="C15" s="243"/>
+      <c r="D15" s="243"/>
+      <c r="E15" s="243"/>
+      <c r="F15" s="243"/>
+      <c r="G15" s="243"/>
+      <c r="H15" s="237"/>
+      <c r="M15" s="243" t="s">
+        <v>91</v>
+      </c>
+      <c r="N15" s="243"/>
+      <c r="O15" s="243"/>
+      <c r="P15" s="243"/>
+      <c r="Q15" s="243"/>
+      <c r="R15" s="243"/>
+      <c r="S15" s="243"/>
+      <c r="T15" s="237"/>
+      <c r="U15" s="237"/>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16" s="237"/>
+      <c r="B16" s="237"/>
+      <c r="C16" s="237"/>
+      <c r="D16" s="237"/>
+      <c r="E16" s="237"/>
+      <c r="F16" s="237"/>
+      <c r="G16" s="237"/>
+      <c r="H16" s="237"/>
+      <c r="M16" s="237"/>
+      <c r="N16" s="237"/>
+      <c r="O16" s="237"/>
+      <c r="P16" s="237"/>
+      <c r="Q16" s="237"/>
+      <c r="R16" s="237"/>
+      <c r="S16" s="237"/>
+      <c r="T16" s="237"/>
+      <c r="U16" s="237"/>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17" s="237"/>
+      <c r="B17" s="237"/>
+      <c r="C17" s="237"/>
+      <c r="D17" s="237"/>
+      <c r="E17" s="237"/>
+      <c r="F17" s="237"/>
+      <c r="G17" s="237"/>
+      <c r="H17" s="237"/>
+      <c r="M17" s="237"/>
+      <c r="N17" s="237"/>
+      <c r="O17" s="237"/>
+      <c r="P17" s="237"/>
+      <c r="Q17" s="237"/>
+      <c r="R17" s="237"/>
+      <c r="S17" s="237"/>
+      <c r="T17" s="237"/>
+      <c r="U17" s="237"/>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="M18" s="237"/>
+      <c r="N18" s="237"/>
+      <c r="O18" s="237"/>
+      <c r="P18" s="237"/>
+      <c r="Q18" s="237"/>
+      <c r="R18" s="237"/>
+      <c r="S18" s="237"/>
+      <c r="T18" s="237"/>
+      <c r="U18" s="237"/>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="M19" s="237"/>
+      <c r="N19" s="237"/>
+      <c r="O19" s="237"/>
+      <c r="P19" s="237"/>
+      <c r="Q19" s="237"/>
+      <c r="R19" s="237"/>
+      <c r="S19" s="237"/>
+      <c r="T19" s="237"/>
+      <c r="U19" s="237"/>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="M20" s="237"/>
+      <c r="N20" s="237"/>
+      <c r="O20" s="237"/>
+      <c r="P20" s="237"/>
+      <c r="Q20" s="237"/>
+      <c r="R20" s="237"/>
+      <c r="S20" s="237"/>
+      <c r="T20" s="237"/>
+      <c r="U20" s="237"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="20">
+    <mergeCell ref="M14:S14"/>
+    <mergeCell ref="M15:S15"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="M1:S1"/>
+    <mergeCell ref="M3:M5"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:S4"/>
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="L3:L6"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
